--- a/biology/Botanique/Bloodwood/Bloodwood.xlsx
+++ b/biology/Botanique/Bloodwood/Bloodwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le nom anglais Bloodwood (littéralement bois sanglant) est donné à plusieurs groupes d'arbres qui n'ont pas de lien entre eux.
 Pterocarpus erinaceus, un arbre à feuilles caduques d'Afrique du Sud aux fleurs jaune orangé. Il produit une sève visqueuse rouge souvent utilisée comme colorant pour noircir les cheveux. Son bois très dense va du rose clair au rouge vif. Il est utilisé par les menuisiers pour sa facilité à poncer et sa couleur caractéristique.
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Bloodwood » (voir la liste des auteurs).
  Portail de la botanique                     </t>
